--- a/TaskModulUTP/bin/Debug/Data/Login.xlsx
+++ b/TaskModulUTP/bin/Debug/Data/Login.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\automation\AutomationModul\AutomationModulFr\TaskModulUTP\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1\ModulAutomation\TaskModulUTP\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7305"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>UserName</t>
   </si>
@@ -37,11 +37,14 @@
   <si>
     <t>mytestaccount</t>
   </si>
+  <si>
+    <t>mytestaccoun</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -85,8 +88,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -102,9 +105,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -142,7 +145,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -214,7 +217,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -367,16 +370,16 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -384,7 +387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -392,15 +395,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -408,7 +411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
